--- a/100runs/run073/NotionalETEOutput073.xlsx
+++ b/100runs/run073/NotionalETEOutput073.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>MISSILE_SOMERSAULT_120.MISSILE_SOMERSAULT_120</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_225.MISSILE_HIGHWIND_225</t>
+    <t>MISSILE_HIGHWIND_100.MISSILE_HIGHWIND_100</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_327.MISSILE_SOMERSAULT_327</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G2">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H2">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I2">
-        <v>-1583.612319782882</v>
+        <v>1114861.180767877</v>
       </c>
       <c r="J2">
-        <v>2472.665771291427</v>
+        <v>4843228.35998983</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.028268328</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G3">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H3">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I3">
-        <v>-1552.347595846748</v>
+        <v>1114890.794759648</v>
       </c>
       <c r="J3">
-        <v>2412.516212817238</v>
+        <v>4843179.708350511</v>
       </c>
       <c r="K3">
-        <v>427.8941066444</v>
+        <v>3984674.824314218</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G4">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H4">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I4">
-        <v>-1520.313006846707</v>
+        <v>1114921.137968722</v>
       </c>
       <c r="J4">
-        <v>2352.36665434305</v>
+        <v>4843131.056711191</v>
       </c>
       <c r="K4">
-        <v>834.4514517353392</v>
+        <v>3984963.47169671</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G5">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H5">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I5">
-        <v>-1487.489595563821</v>
+        <v>1114952.228351405</v>
       </c>
       <c r="J5">
-        <v>2292.217095868862</v>
+        <v>4843082.405071872</v>
       </c>
       <c r="K5">
-        <v>1219.67203527282</v>
+        <v>3985236.970415801</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G6">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H6">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I6">
-        <v>-1453.857937975079</v>
+        <v>1114984.084306158</v>
       </c>
       <c r="J6">
-        <v>2232.067537394674</v>
+        <v>4843033.753432553</v>
       </c>
       <c r="K6">
-        <v>1583.555857256842</v>
+        <v>3985495.320471494</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G7">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H7">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I7">
-        <v>-1419.39813175877</v>
+        <v>1115016.724684491</v>
       </c>
       <c r="J7">
-        <v>2171.917978920485</v>
+        <v>4842985.101793233</v>
       </c>
       <c r="K7">
-        <v>1926.102917687405</v>
+        <v>3985738.521863788</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G8">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H8">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I8">
-        <v>-1384.089784516827</v>
+        <v>1115050.168802111</v>
       </c>
       <c r="J8">
-        <v>2111.768420446297</v>
+        <v>4842936.450153913</v>
       </c>
       <c r="K8">
-        <v>2247.313216564509</v>
+        <v>3985966.574592682</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G9">
-        <v>-58.30067662090676</v>
+        <v>4841124.537730123</v>
       </c>
       <c r="H9">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I9">
-        <v>-1347.912001707134</v>
+        <v>1115084.436450359</v>
       </c>
       <c r="J9">
-        <v>2051.618861972109</v>
+        <v>4842887.798514594</v>
       </c>
       <c r="K9">
-        <v>2547.186753888154</v>
+        <v>3986179.478658177</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>213.3515040732005</v>
+        <v>1116577.437850057</v>
       </c>
       <c r="G10">
-        <v>-48.6735938547124</v>
+        <v>4841141.050549246</v>
       </c>
       <c r="H10">
-        <v>834.7853801699464</v>
+        <v>3985221.245678022</v>
       </c>
       <c r="I10">
-        <v>-1310.843374278702</v>
+        <v>1115119.54790792</v>
       </c>
       <c r="J10">
-        <v>1991.469303497921</v>
+        <v>4842839.146875275</v>
       </c>
       <c r="K10">
-        <v>2825.723529658339</v>
+        <v>3986377.234060274</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>165.5856559917174</v>
+        <v>1116528.757332763</v>
       </c>
       <c r="G11">
-        <v>-39.04651108851804</v>
+        <v>4841157.563368369</v>
       </c>
       <c r="H11">
-        <v>1028.449971051956</v>
+        <v>3985420.499730675</v>
       </c>
       <c r="I11">
-        <v>-1272.861966002357</v>
+        <v>1115155.523952822</v>
       </c>
       <c r="J11">
-        <v>1931.319745023733</v>
+        <v>4842790.495235956</v>
       </c>
       <c r="K11">
-        <v>3082.923543875064</v>
+        <v>3986559.84079897</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>137.5256164374506</v>
+        <v>1116500.159970931</v>
       </c>
       <c r="G12">
-        <v>-29.41942832232369</v>
+        <v>4841174.076187492</v>
       </c>
       <c r="H12">
-        <v>1143.806505764471</v>
+        <v>3985539.185634675</v>
       </c>
       <c r="I12">
-        <v>-1233.945300489462</v>
+        <v>1115192.385874731</v>
       </c>
       <c r="J12">
-        <v>1871.170186549545</v>
+        <v>4842741.843596636</v>
       </c>
       <c r="K12">
-        <v>3318.786796538332</v>
+        <v>3986727.298874268</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.8120608821409</v>
+        <v>1116482.107218134</v>
       </c>
       <c r="G13">
-        <v>-19.79234555612932</v>
+        <v>4841190.589006616</v>
       </c>
       <c r="H13">
-        <v>1226.244024473384</v>
+        <v>3985624.002428589</v>
       </c>
       <c r="I13">
-        <v>-1194.070347890987</v>
+        <v>1115230.155487556</v>
       </c>
       <c r="J13">
-        <v>1811.020628075356</v>
+        <v>4842693.191957316</v>
       </c>
       <c r="K13">
-        <v>3533.313287648141</v>
+        <v>3986879.608286167</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.4586991414112</v>
+        <v>1116469.517301613</v>
       </c>
       <c r="G14">
-        <v>-10.16526278993496</v>
+        <v>4841207.101825738</v>
       </c>
       <c r="H14">
-        <v>1290.438076126082</v>
+        <v>3985690.04922057</v>
       </c>
       <c r="I14">
-        <v>-1153.213511269059</v>
+        <v>1115268.855142349</v>
       </c>
       <c r="J14">
-        <v>1750.871069601168</v>
+        <v>4842644.540317997</v>
       </c>
       <c r="K14">
-        <v>3726.50301720449</v>
+        <v>3987016.769034666</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.24272134185193</v>
+        <v>1116460.124846864</v>
       </c>
       <c r="G15">
-        <v>-0.5381800237406067</v>
+        <v>4841223.614644863</v>
       </c>
       <c r="H15">
-        <v>1343.017983774163</v>
+        <v>3985744.146666259</v>
       </c>
       <c r="I15">
-        <v>-1111.350612632917</v>
+        <v>1115308.507740538</v>
       </c>
       <c r="J15">
-        <v>1690.72151112698</v>
+        <v>4842595.888678678</v>
       </c>
       <c r="K15">
-        <v>3898.355985207379</v>
+        <v>3987138.781119766</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.03711367574164</v>
+        <v>1116452.781258868</v>
       </c>
       <c r="G16">
-        <v>9.088902742453756</v>
+        <v>4841240.127463985</v>
       </c>
       <c r="H16">
-        <v>1387.549327404856</v>
+        <v>3985789.963253834</v>
       </c>
       <c r="I16">
-        <v>-1068.45687863102</v>
+        <v>1115349.136747478</v>
       </c>
       <c r="J16">
-        <v>1630.571952652792</v>
+        <v>4842547.237039358</v>
       </c>
       <c r="K16">
-        <v>4048.872191656811</v>
+        <v>3987245.644541468</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.2072524163607</v>
+        <v>1116446.839761475</v>
       </c>
       <c r="G17">
-        <v>18.71598550864812</v>
+        <v>4841256.640283109</v>
       </c>
       <c r="H17">
-        <v>1426.172157638123</v>
+        <v>3985829.700799112</v>
       </c>
       <c r="I17">
-        <v>-1024.506925890837</v>
+        <v>1115390.766206336</v>
       </c>
       <c r="J17">
-        <v>1570.422394178604</v>
+        <v>4842498.585400039</v>
       </c>
       <c r="K17">
-        <v>4178.051636552782</v>
+        <v>3987337.359299769</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.36639027513534</v>
+        <v>1116441.906201564</v>
       </c>
       <c r="G18">
-        <v>28.34306827484247</v>
+        <v>4841273.153102232</v>
       </c>
       <c r="H18">
-        <v>1460.272294862201</v>
+        <v>3985864.785119415</v>
       </c>
       <c r="I18">
-        <v>-979.4747459976435</v>
+        <v>1115433.420752319</v>
       </c>
       <c r="J18">
-        <v>1510.272835704415</v>
+        <v>4842449.93376072</v>
       </c>
       <c r="K18">
-        <v>4285.894319895295</v>
+        <v>3987413.925394672</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.26412384006721</v>
+        <v>1116437.725380744</v>
       </c>
       <c r="G19">
-        <v>37.97015104103684</v>
+        <v>4841289.665921355</v>
       </c>
       <c r="H19">
-        <v>1490.79877961013</v>
+        <v>3985896.192646066</v>
       </c>
       <c r="I19">
-        <v>-933.3336901034253</v>
+        <v>1115477.125627256</v>
       </c>
       <c r="J19">
-        <v>1450.123277230227</v>
+        <v>4842401.2821214</v>
       </c>
       <c r="K19">
-        <v>4372.400241684349</v>
+        <v>3987475.342826176</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.73042152487206</v>
+        <v>1116434.12401149</v>
       </c>
       <c r="G20">
-        <v>47.5972338072312</v>
+        <v>4841306.178740478</v>
       </c>
       <c r="H20">
-        <v>1518.430096600194</v>
+        <v>3985924.621445906</v>
       </c>
       <c r="I20">
-        <v>-886.056453156805</v>
+        <v>1115521.906694531</v>
       </c>
       <c r="J20">
-        <v>1389.973718756039</v>
+        <v>4842352.63048208</v>
       </c>
       <c r="K20">
-        <v>4437.569401919943</v>
+        <v>3987521.61159428</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.64531681117924</v>
+        <v>1116430.979830043</v>
       </c>
       <c r="G21">
-        <v>57.22431657342555</v>
+        <v>4841322.691559603</v>
       </c>
       <c r="H21">
-        <v>1543.668149667462</v>
+        <v>3985950.587908499</v>
       </c>
       <c r="I21">
-        <v>-837.6150577446349</v>
+        <v>1115567.790454389</v>
       </c>
       <c r="J21">
-        <v>1329.824160281851</v>
+        <v>4842303.978842761</v>
       </c>
       <c r="K21">
-        <v>4481.401800602078</v>
+        <v>3987552.731698985</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.92146093645279</v>
+        <v>1116428.203814996</v>
       </c>
       <c r="G22">
-        <v>66.85139933961992</v>
+        <v>4841339.204378725</v>
       </c>
       <c r="H22">
-        <v>1566.894675369432</v>
+        <v>3985974.484787914</v>
       </c>
       <c r="I22">
-        <v>-787.9808375357063</v>
+        <v>1115614.804059622</v>
       </c>
       <c r="J22">
-        <v>1269.674601807663</v>
+        <v>4842255.327203442</v>
       </c>
       <c r="K22">
-        <v>4503.897437730755</v>
+        <v>3987568.703140291</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.49356038186734</v>
+        <v>1116425.729422523</v>
       </c>
       <c r="G23">
-        <v>76.47848210581428</v>
+        <v>4841355.717197848</v>
       </c>
       <c r="H23">
-        <v>1588.406784871259</v>
+        <v>3985996.617770406</v>
       </c>
       <c r="I23">
-        <v>-737.1244203167782</v>
+        <v>1115662.975331631</v>
       </c>
       <c r="J23">
-        <v>1209.525043333475</v>
+        <v>4842206.675564123</v>
       </c>
       <c r="K23">
-        <v>4505.056313305971</v>
+        <v>3987569.525918198</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.31170829766731</v>
+        <v>1116423.505790108</v>
       </c>
       <c r="G24">
-        <v>86.10556487200864</v>
+        <v>4841372.230016972</v>
       </c>
       <c r="H24">
-        <v>1608.440265493564</v>
+        <v>3986017.229448486</v>
       </c>
       <c r="I24">
-        <v>-685.0157106108803</v>
+        <v>1115712.332776898</v>
       </c>
       <c r="J24">
-        <v>1149.375484859286</v>
+        <v>4842158.023924803</v>
       </c>
       <c r="K24">
-        <v>4484.87842732773</v>
+        <v>3987555.200032705</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.33702211988896</v>
+        <v>1116421.493290624</v>
       </c>
       <c r="G25">
-        <v>95.73264763820301</v>
+        <v>4841388.742836094</v>
       </c>
       <c r="H25">
-        <v>1627.185376131898</v>
+        <v>3986036.515572217</v>
       </c>
       <c r="I25">
-        <v>-631.6238718676079</v>
+        <v>1115762.905603846</v>
       </c>
       <c r="J25">
-        <v>1089.225926385098</v>
+        <v>4842109.372285483</v>
       </c>
       <c r="K25">
-        <v>4443.363779796028</v>
+        <v>3987525.725483814</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.53870163867158</v>
+        <v>1116419.660534067</v>
       </c>
       <c r="G26">
-        <v>105.3597304043974</v>
+        <v>4841405.255655218</v>
       </c>
       <c r="H26">
-        <v>1644.797863289324</v>
+        <v>3986054.63638319</v>
       </c>
       <c r="I26">
-        <v>-576.9173082148737</v>
+        <v>1115814.723740131</v>
       </c>
       <c r="J26">
-        <v>1029.07636791091</v>
+        <v>4842060.720646164</v>
       </c>
       <c r="K26">
-        <v>4380.512370710868</v>
+        <v>3987481.102271523</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.89199199351307</v>
+        <v>1116417.982291545</v>
       </c>
       <c r="G27">
-        <v>114.9868131705917</v>
+        <v>4841421.76847434</v>
       </c>
       <c r="H27">
-        <v>1661.40683451529</v>
+        <v>3986071.724715197</v>
       </c>
       <c r="I27">
-        <v>-520.8636457613068</v>
+        <v>1115867.817850351</v>
       </c>
       <c r="J27">
-        <v>968.9268094367217</v>
+        <v>4842012.069006844</v>
       </c>
       <c r="K27">
-        <v>4296.324200072249</v>
+        <v>3987421.330395834</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.37674034185574</v>
+        <v>1116416.438024308</v>
       </c>
       <c r="G28">
-        <v>124.6138959367861</v>
+        <v>4841438.281293465</v>
       </c>
       <c r="H28">
-        <v>1677.120507231265</v>
+        <v>3986087.891908986</v>
       </c>
       <c r="I28">
-        <v>-463.4297134382448</v>
+        <v>1115922.219354189</v>
       </c>
       <c r="J28">
-        <v>908.7772509625337</v>
+        <v>4841963.417367525</v>
       </c>
       <c r="K28">
-        <v>4190.799267880171</v>
+        <v>3987346.409856745</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.97635216734869</v>
+        <v>1116415.010820071</v>
       </c>
       <c r="G29">
-        <v>134.2409787029804</v>
+        <v>4841454.794112588</v>
       </c>
       <c r="H29">
-        <v>1692.03048583732</v>
+        <v>3986103.232212801</v>
       </c>
       <c r="I29">
-        <v>-404.5815233699757</v>
+        <v>1115977.96044501</v>
       </c>
       <c r="J29">
-        <v>848.6276924883454</v>
+        <v>4841914.765728206</v>
       </c>
       <c r="K29">
-        <v>4063.937574134633</v>
+        <v>3987256.340654257</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.6770228120627</v>
+        <v>1116413.686609831</v>
       </c>
       <c r="G30">
-        <v>143.8680614691748</v>
+        <v>4841471.306931711</v>
       </c>
       <c r="H30">
-        <v>1706.214997280988</v>
+        <v>3986117.82611134</v>
       </c>
       <c r="I30">
-        <v>-344.2842507606177</v>
+        <v>1116035.074108913</v>
       </c>
       <c r="J30">
-        <v>788.478134014157</v>
+        <v>4841866.114088887</v>
       </c>
       <c r="K30">
-        <v>3915.739118835636</v>
+        <v>3987151.12278837</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.46716243743042</v>
+        <v>1116412.453581815</v>
       </c>
       <c r="G31">
-        <v>153.4951442353692</v>
+        <v>4841487.819750834</v>
       </c>
       <c r="H31">
-        <v>1719.741375361136</v>
+        <v>3986131.742881762</v>
       </c>
       <c r="I31">
-        <v>-282.5022132857282</v>
+        <v>1116093.594144245</v>
       </c>
       <c r="J31">
-        <v>728.3285755399691</v>
+        <v>4841817.462449566</v>
       </c>
       <c r="K31">
-        <v>3746.203901983181</v>
+        <v>3987030.756259083</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.33695942495159</v>
+        <v>1116411.301736522</v>
       </c>
       <c r="G32">
-        <v>163.1222270015635</v>
+        <v>4841504.332569958</v>
       </c>
       <c r="H32">
-        <v>1732.667993833348</v>
+        <v>3986145.04258258</v>
       </c>
       <c r="I32">
-        <v>-219.1988499764518</v>
+        <v>1116153.555181609</v>
       </c>
       <c r="J32">
-        <v>668.1790170657807</v>
+        <v>4841768.810810247</v>
       </c>
       <c r="K32">
-        <v>3555.331923577266</v>
+        <v>3986895.241066397</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.27804449986807</v>
+        <v>1116410.222544413</v>
       </c>
       <c r="G33">
-        <v>172.7493097677579</v>
+        <v>4841520.84538908</v>
       </c>
       <c r="H33">
-        <v>1745.045788857236</v>
+        <v>3986157.777620049</v>
       </c>
       <c r="I33">
-        <v>-154.3366995837104</v>
+        <v>1116214.992704356</v>
       </c>
       <c r="J33">
-        <v>608.0294585915927</v>
+        <v>4841720.159170928</v>
       </c>
       <c r="K33">
-        <v>3343.123183617892</v>
+        <v>3986744.577210313</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.28322923480017</v>
+        <v>1116409.20867941</v>
       </c>
       <c r="G34">
-        <v>182.3763925339522</v>
+        <v>4841537.358208204</v>
       </c>
       <c r="H34">
-        <v>1756.919471218517</v>
+        <v>3986169.993995379</v>
       </c>
       <c r="I34">
-        <v>-87.87737840963186</v>
+        <v>1116277.943069579</v>
       </c>
       <c r="J34">
-        <v>547.8799001174044</v>
+        <v>4841671.507531609</v>
       </c>
       <c r="K34">
-        <v>3109.577682105059</v>
+        <v>3986578.764690829</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.34630022899587</v>
+        <v>1116408.253809131</v>
       </c>
       <c r="G35">
-        <v>192.0034753001466</v>
+        <v>4841553.871027327</v>
       </c>
       <c r="H35">
-        <v>1768.328501221338</v>
+        <v>3986181.73230776</v>
       </c>
       <c r="I35">
-        <v>-19.78155759309632</v>
+        <v>1116342.443529633</v>
       </c>
       <c r="J35">
-        <v>487.7303416432162</v>
+        <v>4841622.855892289</v>
       </c>
       <c r="K35">
-        <v>2854.695419038766</v>
+        <v>3986397.803507946</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.46185548167966</v>
+        <v>1116407.352428133</v>
       </c>
       <c r="G36">
-        <v>201.630558066341</v>
+        <v>4841570.383846451</v>
       </c>
       <c r="H36">
-        <v>1779.307879913702</v>
+        <v>3986193.028568425</v>
       </c>
       <c r="I36">
-        <v>49.99106016404018</v>
+        <v>1116408.532254175</v>
       </c>
       <c r="J36">
-        <v>427.5807831690282</v>
+        <v>4841574.20425297</v>
       </c>
       <c r="K36">
-        <v>2578.476394419015</v>
+        <v>3986201.693661663</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.62517310797753</v>
+        <v>1116406.499724111</v>
       </c>
       <c r="G37">
-        <v>211.2576408325353</v>
+        <v>4841586.896665574</v>
       </c>
       <c r="H37">
-        <v>1789.888796665403</v>
+        <v>3986203.914866916</v>
       </c>
       <c r="I37">
-        <v>121.4817644438147</v>
+        <v>1116476.248352759</v>
       </c>
       <c r="J37">
-        <v>367.4312246948399</v>
+        <v>4841525.55261365</v>
       </c>
       <c r="K37">
-        <v>2280.920608245805</v>
+        <v>3985990.435151982</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.83210510693953</v>
+        <v>1116405.691469634</v>
       </c>
       <c r="G38">
-        <v>220.8847235987297</v>
+        <v>4841603.409484697</v>
       </c>
       <c r="H38">
-        <v>1800.099163300207</v>
+        <v>3986214.419920637</v>
       </c>
       <c r="I38">
-        <v>194.7328615462374</v>
+        <v>1116545.631897973</v>
       </c>
       <c r="J38">
-        <v>307.2816662206519</v>
+        <v>4841476.900974331</v>
       </c>
       <c r="K38">
-        <v>1962.028060519137</v>
+        <v>3985764.027978901</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.07899072321381</v>
+        <v>1116404.923933848</v>
       </c>
       <c r="G39">
-        <v>230.5118063649241</v>
+        <v>4841619.92230382</v>
       </c>
       <c r="H39">
-        <v>1809.964057825906</v>
+        <v>3986224.569531386</v>
       </c>
       <c r="I39">
-        <v>269.7876995250328</v>
+        <v>1116616.723949157</v>
       </c>
       <c r="J39">
-        <v>247.1321077464636</v>
+        <v>4841428.249335011</v>
       </c>
       <c r="K39">
-        <v>1621.798751239007</v>
+        <v>3985522.472142421</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.36258527127516</v>
+        <v>1116404.193809933</v>
       </c>
       <c r="G40">
-        <v>240.1388891311184</v>
+        <v>4841636.435122943</v>
       </c>
       <c r="H40">
-        <v>1819.506095523389</v>
+        <v>3986234.386967155</v>
       </c>
       <c r="I40">
-        <v>346.690693839872</v>
+        <v>1116689.566576697</v>
       </c>
       <c r="J40">
-        <v>186.9825492722753</v>
+        <v>4841379.597695692</v>
       </c>
       <c r="K40">
-        <v>1260.232680405419</v>
+        <v>3985265.767642542</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.68000126424059</v>
+        <v>1116403.498155111</v>
       </c>
       <c r="G41">
-        <v>249.7659718973128</v>
+        <v>4841652.947942067</v>
       </c>
       <c r="H41">
-        <v>1828.745741213563</v>
+        <v>3986243.893283413</v>
       </c>
       <c r="I41">
-        <v>425.4873536402554</v>
+        <v>1116764.202886926</v>
       </c>
       <c r="J41">
-        <v>126.8329907980873</v>
+        <v>4841330.946056373</v>
       </c>
       <c r="K41">
-        <v>877.3298480183731</v>
+        <v>3984993.914479264</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.02865941062456</v>
+        <v>1116402.834340699</v>
       </c>
       <c r="G42">
-        <v>259.3930546635071</v>
+        <v>4841669.46076119</v>
       </c>
       <c r="H42">
-        <v>1837.701573547961</v>
+        <v>3986253.107595019</v>
       </c>
       <c r="I42">
-        <v>506.2243086966272</v>
+        <v>1116840.677047631</v>
       </c>
       <c r="J42">
-        <v>66.683432323899</v>
+        <v>4841282.294417054</v>
       </c>
       <c r="K42">
-        <v>473.0902540778666</v>
+        <v>3984706.912652587</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.40624758253959</v>
+        <v>1116402.200010293</v>
       </c>
       <c r="G43">
-        <v>269.0201374297015</v>
+        <v>4841685.973580314</v>
       </c>
       <c r="H43">
-        <v>1846.390509905239</v>
+        <v>3986262.047307615</v>
       </c>
       <c r="I43">
-        <v>588.9493369946247</v>
+        <v>1116919.034314188</v>
       </c>
       <c r="J43">
-        <v>6.533873849710703</v>
+        <v>4841233.642777734</v>
       </c>
       <c r="K43">
-        <v>47.51389858390134</v>
+        <v>3984404.762162511</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.8106862672292</v>
+        <v>1116401.593044562</v>
       </c>
       <c r="G44">
-        <v>278.6472201958958</v>
+        <v>4841702.486399436</v>
       </c>
       <c r="H44">
-        <v>1854.827998736359</v>
+        <v>3986270.728315517</v>
       </c>
       <c r="I44">
-        <v>673.7113930088293</v>
+        <v>1116999.321056346</v>
       </c>
       <c r="J44">
-        <v>-53.6156846244773</v>
+        <v>4841184.991138414</v>
       </c>
       <c r="K44">
-        <v>-399.3992184635218</v>
+        <v>3984087.463009035</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.24009932534024</v>
+        <v>1116401.011531439</v>
       </c>
       <c r="G45">
-        <v>288.2743029620902</v>
+        <v>4841718.99921856</v>
       </c>
       <c r="H45">
-        <v>1863.028184853504</v>
+        <v>3986279.165171779</v>
       </c>
       <c r="I45">
-        <v>760.5606366727224</v>
+        <v>1117081.584785668</v>
       </c>
       <c r="J45">
-        <v>-113.7652430986656</v>
+        <v>4841136.339499095</v>
       </c>
       <c r="K45">
-        <v>-867.6490970644053</v>
+        <v>3983755.01519216</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.69278911897254</v>
+        <v>1116400.453740778</v>
       </c>
       <c r="G46">
-        <v>297.9013857282846</v>
+        <v>4841735.512037682</v>
       </c>
       <c r="H46">
-        <v>1871.004052105076</v>
+        <v>3986287.371234984</v>
       </c>
       <c r="I46">
-        <v>849.5484630620002</v>
+        <v>1117165.874183644</v>
       </c>
       <c r="J46">
-        <v>-173.9148015728539</v>
+        <v>4841087.687859775</v>
       </c>
       <c r="K46">
-        <v>-1357.235737218749</v>
+        <v>3983407.418711886</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.16721525834328</v>
+        <v>1116399.918102693</v>
       </c>
       <c r="G47">
-        <v>307.5284684944789</v>
+        <v>4841752.024856806</v>
       </c>
       <c r="H47">
-        <v>1878.767547050812</v>
+        <v>3986295.358796488</v>
       </c>
       <c r="I47">
-        <v>940.7275328088149</v>
+        <v>1117252.239130499</v>
       </c>
       <c r="J47">
-        <v>-234.0643600470422</v>
+        <v>4841039.036220456</v>
       </c>
       <c r="K47">
-        <v>-1868.159138926551</v>
+        <v>3983044.673568213</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.66197636102303</v>
+        <v>1116399.403188966</v>
       </c>
       <c r="G48">
-        <v>317.1555512606733</v>
+        <v>4841768.53767593</v>
       </c>
       <c r="H48">
-        <v>1886.329686594634</v>
+        <v>3986303.139191158</v>
       </c>
       <c r="I48">
-        <v>1034.151803264938</v>
+        <v>1117340.730734716</v>
       </c>
       <c r="J48">
-        <v>-294.2139185212299</v>
+        <v>4840990.384581137</v>
       </c>
       <c r="K48">
-        <v>-2400.419302187808</v>
+        <v>3982666.779761141</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.1757943318547</v>
+        <v>1116398.907697027</v>
       </c>
       <c r="G49">
-        <v>326.7826340268677</v>
+        <v>4841785.050495053</v>
       </c>
       <c r="H49">
-        <v>1893.700652009296</v>
+        <v>3986310.722894117</v>
       </c>
       <c r="I49">
-        <v>1129.876560432292</v>
+        <v>1117431.401363277</v>
       </c>
       <c r="J49">
-        <v>-354.3634769954182</v>
+        <v>4840941.732941818</v>
       </c>
       <c r="K49">
-        <v>-2954.016227002528</v>
+        <v>3982273.737290669</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.70750076204971</v>
+        <v>1116398.430436094</v>
       </c>
       <c r="G50">
-        <v>336.409716793062</v>
+        <v>4841801.563314176</v>
       </c>
       <c r="H50">
-        <v>1900.889871366621</v>
+        <v>3986318.119605544</v>
       </c>
       <c r="I50">
-        <v>1227.958451679729</v>
+        <v>1117524.30467265</v>
       </c>
       <c r="J50">
-        <v>-414.5130354696065</v>
+        <v>4840893.081302498</v>
       </c>
       <c r="K50">
-        <v>-3528.949913370708</v>
+        <v>3981865.546156798</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.25602511797115</v>
+        <v>1116397.970315133</v>
       </c>
       <c r="G51">
-        <v>346.0367995592563</v>
+        <v>4841818.0761333</v>
       </c>
       <c r="H51">
-        <v>1907.906092047796</v>
+        <v>3986325.338325283</v>
       </c>
       <c r="I51">
-        <v>1328.455519265449</v>
+        <v>1117619.495640548</v>
       </c>
       <c r="J51">
-        <v>-474.6625939437948</v>
+        <v>4840844.429663179</v>
       </c>
       <c r="K51">
-        <v>-4125.220361292347</v>
+        <v>3981442.206359529</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.82038444783617</v>
+        <v>1116397.526332371</v>
       </c>
       <c r="G52">
-        <v>355.6638823254507</v>
+        <v>4841834.588952422</v>
       </c>
       <c r="H52">
-        <v>1914.757444732674</v>
+        <v>3986332.387418679</v>
       </c>
       <c r="I52">
-        <v>1431.427234684862</v>
+        <v>1117717.030598455</v>
       </c>
       <c r="J52">
-        <v>-534.812152417983</v>
+        <v>4840795.778023859</v>
       </c>
       <c r="K52">
-        <v>-4742.827570767444</v>
+        <v>3981003.71789886</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.39967438109029</v>
+        <v>1116397.097566118</v>
       </c>
       <c r="G53">
-        <v>365.2909650916451</v>
+        <v>4841851.101771546</v>
       </c>
       <c r="H53">
-        <v>1921.451500042156</v>
+        <v>3986339.274674852</v>
       </c>
       <c r="I53">
-        <v>1536.934533864234</v>
+        <v>1117816.967264971</v>
       </c>
       <c r="J53">
-        <v>-594.9617108921708</v>
+        <v>4840747.12638454</v>
       </c>
       <c r="K53">
-        <v>-5381.771541795996</v>
+        <v>3980550.080774792</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.99306123290959</v>
+        <v>1116396.683166726</v>
       </c>
       <c r="G54">
-        <v>374.9180478578394</v>
+        <v>4841867.614590669</v>
       </c>
       <c r="H54">
-        <v>1927.995318823213</v>
+        <v>3986346.007358437</v>
       </c>
       <c r="I54">
-        <v>1645.039853220964</v>
+        <v>1117919.364779959</v>
       </c>
       <c r="J54">
-        <v>-655.1112693663591</v>
+        <v>4840698.474745221</v>
       </c>
       <c r="K54">
-        <v>-6042.052274378012</v>
+        <v>3980081.294987325</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G55">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H55">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I55">
-        <v>-1033.298414508495</v>
+        <v>1114860.424369857</v>
       </c>
       <c r="J55">
-        <v>2346.776540686989</v>
+        <v>4843233.561854128</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984361.503010762</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G56">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H56">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I56">
-        <v>-1012.89835240385</v>
+        <v>1114890.038341536</v>
       </c>
       <c r="J56">
-        <v>2289.689337718114</v>
+        <v>4843184.910162554</v>
       </c>
       <c r="K56">
-        <v>255.4879396256646</v>
+        <v>3984665.298330381</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G57">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H57">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I57">
-        <v>-991.9959575375907</v>
+        <v>1114920.381530024</v>
       </c>
       <c r="J57">
-        <v>2232.602134749238</v>
+        <v>4843136.25847098</v>
       </c>
       <c r="K57">
-        <v>498.2360794669212</v>
+        <v>3984953.945022816</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G58">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H58">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I58">
-        <v>-970.5788604276007</v>
+        <v>1114951.471891612</v>
       </c>
       <c r="J58">
-        <v>2175.514931780363</v>
+        <v>4843087.606779407</v>
       </c>
       <c r="K58">
-        <v>728.2444195237715</v>
+        <v>3985227.443088066</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G59">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H59">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I59">
-        <v>-948.6343870046454</v>
+        <v>1114983.327824752</v>
       </c>
       <c r="J59">
-        <v>2118.427728811487</v>
+        <v>4843038.955087833</v>
       </c>
       <c r="K59">
-        <v>945.5129597962141</v>
+        <v>3985485.792526133</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G60">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H60">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I60">
-        <v>-926.1495511121948</v>
+        <v>1115015.968180939</v>
       </c>
       <c r="J60">
-        <v>2061.340525842611</v>
+        <v>4842990.303396259</v>
       </c>
       <c r="K60">
-        <v>1150.041700284251</v>
+        <v>3985728.993337016</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G61">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H61">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I61">
-        <v>-903.1110468215625</v>
+        <v>1115049.412275869</v>
       </c>
       <c r="J61">
-        <v>2004.253322873735</v>
+        <v>4842941.651704685</v>
       </c>
       <c r="K61">
-        <v>1341.83064098788</v>
+        <v>3985957.045520715</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G62">
-        <v>-70.47255002735</v>
+        <v>4841124.47248055</v>
       </c>
       <c r="H62">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I62">
-        <v>-879.5052405578087</v>
+        <v>1115083.679900868</v>
       </c>
       <c r="J62">
-        <v>1947.16611990486</v>
+        <v>4842893.000013112</v>
       </c>
       <c r="K62">
-        <v>1520.879781907102</v>
+        <v>3986169.94907723</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>254.8619748101476</v>
+        <v>1116580.630798737</v>
       </c>
       <c r="G63">
-        <v>-58.83554834605598</v>
+        <v>4841140.985299451</v>
       </c>
       <c r="H63">
-        <v>1212.163639384459</v>
+        <v>3985227.281882099</v>
       </c>
       <c r="I63">
-        <v>-855.3181630317537</v>
+        <v>1115118.791334606</v>
       </c>
       <c r="J63">
-        <v>1890.078916935984</v>
+        <v>4842844.348321538</v>
       </c>
       <c r="K63">
-        <v>1687.189123041917</v>
+        <v>3986367.704006561</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>197.8026237481016</v>
+        <v>1116531.950142237</v>
       </c>
       <c r="G64">
-        <v>-47.19854666476195</v>
+        <v>4841157.498118351</v>
       </c>
       <c r="H64">
-        <v>1493.377447004866</v>
+        <v>3985426.536236552</v>
       </c>
       <c r="I64">
-        <v>-830.5355009733227</v>
+        <v>1115154.767355099</v>
       </c>
       <c r="J64">
-        <v>1832.991713967109</v>
+        <v>4842795.696629965</v>
       </c>
       <c r="K64">
-        <v>1840.758664392324</v>
+        <v>3986550.310308708</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>164.2831174051904</v>
+        <v>1116503.352698628</v>
       </c>
       <c r="G65">
-        <v>-35.56154498346794</v>
+        <v>4841174.010937252</v>
       </c>
       <c r="H65">
-        <v>1660.882772643696</v>
+        <v>3985545.222320319</v>
       </c>
       <c r="I65">
-        <v>-805.142588661334</v>
+        <v>1115191.629252</v>
       </c>
       <c r="J65">
-        <v>1775.904510998233</v>
+        <v>4842747.04493839</v>
       </c>
       <c r="K65">
-        <v>1981.588405958325</v>
+        <v>3986717.767983671</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>143.12314588614</v>
+        <v>1116485.299894208</v>
       </c>
       <c r="G66">
-        <v>-23.92454330217391</v>
+        <v>4841190.523756154</v>
       </c>
       <c r="H66">
-        <v>1780.587507625611</v>
+        <v>3985630.039242701</v>
       </c>
       <c r="I66">
-        <v>-779.124399244713</v>
+        <v>1115229.398839199</v>
       </c>
       <c r="J66">
-        <v>1718.817308029357</v>
+        <v>4842698.393246817</v>
       </c>
       <c r="K66">
-        <v>2109.67834773992</v>
+        <v>3986870.07703145</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>128.3662676421213</v>
+        <v>1116472.709941686</v>
       </c>
       <c r="G67">
-        <v>-12.28754162087989</v>
+        <v>4841207.036575054</v>
       </c>
       <c r="H67">
-        <v>1873.80152062417</v>
+        <v>3985696.086134719</v>
       </c>
       <c r="I67">
-        <v>-752.4655358500036</v>
+        <v>1115268.098467735</v>
       </c>
       <c r="J67">
-        <v>1661.730105060481</v>
+        <v>4842649.741555244</v>
       </c>
       <c r="K67">
-        <v>2225.028489737107</v>
+        <v>3987007.237452046</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>117.3571945540014</v>
+        <v>1116463.317460078</v>
       </c>
       <c r="G68">
-        <v>-0.6505399395858749</v>
+        <v>4841223.549393955</v>
       </c>
       <c r="H68">
-        <v>1950.151027607895</v>
+        <v>3985750.183662346</v>
       </c>
       <c r="I68">
-        <v>-725.150222469904</v>
+        <v>1115307.751039021</v>
       </c>
       <c r="J68">
-        <v>1604.642902091606</v>
+        <v>4842601.08986367</v>
       </c>
       <c r="K68">
-        <v>2327.638831949886</v>
+        <v>3987129.249245457</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>108.7496367705703</v>
+        <v>1116455.973851082</v>
       </c>
       <c r="G69">
-        <v>10.98646174170815</v>
+        <v>4841240.062212855</v>
       </c>
       <c r="H69">
-        <v>2014.813486779222</v>
+        <v>3985796.000319318</v>
       </c>
       <c r="I69">
-        <v>-697.162294627447</v>
+        <v>1115348.380018395</v>
       </c>
       <c r="J69">
-        <v>1547.55569912273</v>
+        <v>4842552.438172096</v>
       </c>
       <c r="K69">
-        <v>2417.50937437826</v>
+        <v>3987236.112411685</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>101.7854957869417</v>
+        <v>1116450.032336699</v>
       </c>
       <c r="G70">
-        <v>22.62346342300217</v>
+        <v>4841256.575031755</v>
       </c>
       <c r="H70">
-        <v>2070.896393321445</v>
+        <v>3985835.737924784</v>
       </c>
       <c r="I70">
-        <v>-668.4851898102906</v>
+        <v>1115390.009449009</v>
       </c>
       <c r="J70">
-        <v>1490.468496153855</v>
+        <v>4842503.786480523</v>
       </c>
       <c r="K70">
-        <v>2494.640117022225</v>
+        <v>3987327.826950728</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>96.00277730808304</v>
+        <v>1116445.09876268</v>
       </c>
       <c r="G71">
-        <v>34.26046510429619</v>
+        <v>4841273.087850656</v>
       </c>
       <c r="H71">
-        <v>2120.412050187205</v>
+        <v>3985870.822298228</v>
       </c>
       <c r="I71">
-        <v>-639.1019376694649</v>
+        <v>1115432.663966052</v>
       </c>
       <c r="J71">
-        <v>1433.381293184979</v>
+        <v>4842455.134788949</v>
       </c>
       <c r="K71">
-        <v>2559.031059881784</v>
+        <v>3987404.392862588</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>91.102358492755</v>
+        <v>1116440.917929905</v>
       </c>
       <c r="G72">
-        <v>45.89746678559023</v>
+        <v>4841289.600669557</v>
       </c>
       <c r="H72">
-        <v>2164.738527062172</v>
+        <v>3985902.229872449</v>
       </c>
       <c r="I72">
-        <v>-608.9951499767673</v>
+        <v>1115476.368811337</v>
       </c>
       <c r="J72">
-        <v>1376.294090216103</v>
+        <v>4842406.483097375</v>
       </c>
       <c r="K72">
-        <v>2610.682202956936</v>
+        <v>3987465.810147264</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>86.88112577000452</v>
+        <v>1116437.316550353</v>
       </c>
       <c r="G73">
-        <v>57.53446846688423</v>
+        <v>4841306.113488458</v>
       </c>
       <c r="H73">
-        <v>2204.861028676712</v>
+        <v>3985930.658715349</v>
       </c>
       <c r="I73">
-        <v>-578.1470103348738</v>
+        <v>1115521.149848229</v>
       </c>
       <c r="J73">
-        <v>1319.206887247228</v>
+        <v>4842357.831405802</v>
       </c>
       <c r="K73">
-        <v>2649.59354624768</v>
+        <v>3987512.078804755</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>83.19577148462727</v>
+        <v>1116434.172359914</v>
       </c>
       <c r="G74">
-        <v>69.17147014817824</v>
+        <v>4841322.626307359</v>
       </c>
       <c r="H74">
-        <v>2241.508352628131</v>
+        <v>3985956.625217273</v>
       </c>
       <c r="I74">
-        <v>-546.539263634067</v>
+        <v>1115567.033576957</v>
       </c>
       <c r="J74">
-        <v>1262.119684278352</v>
+        <v>4842309.179714228</v>
       </c>
       <c r="K74">
-        <v>2675.765089754018</v>
+        <v>3987543.198835063</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>79.94195197045678</v>
+        <v>1116431.396336928</v>
       </c>
       <c r="G75">
-        <v>80.80847182947228</v>
+        <v>4841339.139126259</v>
       </c>
       <c r="H75">
-        <v>2275.234805670978</v>
+        <v>3985980.522132882</v>
       </c>
       <c r="I75">
-        <v>-514.1532052493462</v>
+        <v>1115614.047150292</v>
       </c>
       <c r="J75">
-        <v>1205.032481309476</v>
+        <v>4842260.528022654</v>
       </c>
       <c r="K75">
-        <v>2689.196833475949</v>
+        <v>3987559.170238187</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>77.04166995617112</v>
+        <v>1116428.92193738</v>
       </c>
       <c r="G76">
-        <v>92.44547351076631</v>
+        <v>4841355.65194516</v>
       </c>
       <c r="H76">
-        <v>2306.471812887448</v>
+        <v>3986002.655148898</v>
       </c>
       <c r="I76">
-        <v>-480.9696699715292</v>
+        <v>1115662.218389619</v>
       </c>
       <c r="J76">
-        <v>1147.945278340601</v>
+        <v>4842211.876331081</v>
       </c>
       <c r="K76">
-        <v>2689.888777413473</v>
+        <v>3987559.993014127</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>74.43530852769921</v>
+        <v>1116426.698298607</v>
       </c>
       <c r="G77">
-        <v>104.0824751920603</v>
+        <v>4841372.164764062</v>
       </c>
       <c r="H77">
-        <v>2335.561753077496</v>
+        <v>3986023.266858198</v>
       </c>
       <c r="I77">
-        <v>-446.9690206657888</v>
+        <v>1115711.575801398</v>
       </c>
       <c r="J77">
-        <v>1090.858075371725</v>
+        <v>4842163.224639507</v>
       </c>
       <c r="K77">
-        <v>2677.84092156659</v>
+        <v>3987545.667162882</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>72.07641998325182</v>
+        <v>1116424.685793367</v>
       </c>
       <c r="G78">
-        <v>115.7194768733544</v>
+        <v>4841388.677582962</v>
       </c>
       <c r="H78">
-        <v>2362.78089475365</v>
+        <v>3986042.553011141</v>
       </c>
       <c r="I78">
-        <v>-412.131136650918</v>
+        <v>1115762.148594034</v>
       </c>
       <c r="J78">
-        <v>1033.770872402849</v>
+        <v>4842114.572947933</v>
       </c>
       <c r="K78">
-        <v>2653.053265935299</v>
+        <v>3987516.192684454</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>69.92821150834298</v>
+        <v>1116422.853031569</v>
       </c>
       <c r="G79">
-        <v>127.3564785546484</v>
+        <v>4841405.190401862</v>
       </c>
       <c r="H79">
-        <v>2388.355392149629</v>
+        <v>3986060.67384956</v>
       </c>
       <c r="I79">
-        <v>-376.4354017924468</v>
+        <v>1115813.966695162</v>
       </c>
       <c r="J79">
-        <v>976.6836694339737</v>
+        <v>4842065.92125636</v>
       </c>
       <c r="K79">
-        <v>2615.525810519602</v>
+        <v>3987471.569578843</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>67.96111184374431</v>
+        <v>1116421.174784248</v>
       </c>
       <c r="G80">
-        <v>138.9934802359424</v>
+        <v>4841421.703220762</v>
       </c>
       <c r="H80">
-        <v>2412.472717974861</v>
+        <v>3986077.76220745</v>
       </c>
       <c r="I80">
-        <v>-339.8606923025596</v>
+        <v>1115867.060769359</v>
       </c>
       <c r="J80">
-        <v>919.5964664650979</v>
+        <v>4842017.269564786</v>
       </c>
       <c r="K80">
-        <v>2565.258555319498</v>
+        <v>3987411.797846047</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>66.15104713408458</v>
+        <v>1116419.630512595</v>
       </c>
       <c r="G81">
-        <v>150.6304819172364</v>
+        <v>4841438.216039663</v>
       </c>
       <c r="H81">
-        <v>2435.290011089906</v>
+        <v>3986093.929425726</v>
       </c>
       <c r="I81">
-        <v>-302.3853642396</v>
+        <v>1115921.462236288</v>
       </c>
       <c r="J81">
-        <v>862.5092634962224</v>
+        <v>4841968.617873212</v>
       </c>
       <c r="K81">
-        <v>2502.251500334986</v>
+        <v>3987336.877486067</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>64.47819417152384</v>
+        <v>1116418.203304277</v>
       </c>
       <c r="G82">
-        <v>162.2674835985304</v>
+        <v>4841454.728858564</v>
       </c>
       <c r="H82">
-        <v>2456.940287148384</v>
+        <v>3986109.269752776</v>
       </c>
       <c r="I82">
-        <v>-263.9872406997591</v>
+        <v>1115977.203289291</v>
       </c>
       <c r="J82">
-        <v>805.4220605273466</v>
+        <v>4841919.966181639</v>
       </c>
       <c r="K82">
-        <v>2426.504645566068</v>
+        <v>3987246.808498904</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>62.92606241198691</v>
+        <v>1116416.87909025</v>
       </c>
       <c r="G83">
-        <v>173.9044852798244</v>
+        <v>4841471.241677465</v>
       </c>
       <c r="H83">
-        <v>2477.537136857163</v>
+        <v>3986123.86367342</v>
       </c>
       <c r="I83">
-        <v>-224.6435986933757</v>
+        <v>1116034.316914443</v>
       </c>
       <c r="J83">
-        <v>748.3348575584708</v>
+        <v>4841871.314490065</v>
       </c>
       <c r="K83">
-        <v>2338.017991012742</v>
+        <v>3987141.590884556</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>61.48080705434231</v>
+        <v>1116415.646058709</v>
       </c>
       <c r="G84">
-        <v>185.5414869611185</v>
+        <v>4841487.754496366</v>
       </c>
       <c r="H84">
-        <v>2497.178333350068</v>
+        <v>3986137.780464921</v>
       </c>
       <c r="I84">
-        <v>-184.3311556980722</v>
+        <v>1116092.836910071</v>
       </c>
       <c r="J84">
-        <v>691.2476545895954</v>
+        <v>4841822.662798491</v>
       </c>
       <c r="K84">
-        <v>2236.79153667501</v>
+        <v>3987021.224643024</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>60.13070749470712</v>
+        <v>1116414.494210121</v>
       </c>
       <c r="G85">
-        <v>197.1784886424125</v>
+        <v>4841504.267315267</v>
       </c>
       <c r="H85">
-        <v>2515.94863918487</v>
+        <v>3986151.080185883</v>
       </c>
       <c r="I85">
-        <v>-143.0260558807768</v>
+        <v>1116152.797906755</v>
       </c>
       <c r="J85">
-        <v>634.1604516207196</v>
+        <v>4841774.011106918</v>
       </c>
       <c r="K85">
-        <v>2122.82528255287</v>
+        <v>3986885.709774309</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>58.86576610076161</v>
+        <v>1116413.415014927</v>
       </c>
       <c r="G86">
-        <v>208.8154903237065</v>
+        <v>4841520.780134167</v>
       </c>
       <c r="H86">
-        <v>2533.922017037578</v>
+        <v>3986163.815242642</v>
       </c>
       <c r="I86">
-        <v>-100.7038559804754</v>
+        <v>1116214.235387818</v>
       </c>
       <c r="J86">
-        <v>577.0732486518441</v>
+        <v>4841725.359415344</v>
       </c>
       <c r="K86">
-        <v>1996.119228646324</v>
+        <v>3986735.046278409</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>57.67739583766989</v>
+        <v>1116412.401147024</v>
       </c>
       <c r="G87">
-        <v>220.4524920050006</v>
+        <v>4841537.292953067</v>
       </c>
       <c r="H87">
-        <v>2551.163389929153</v>
+        <v>3986176.031636476</v>
       </c>
       <c r="I87">
-        <v>-57.33951084333893</v>
+        <v>1116277.185710331</v>
       </c>
       <c r="J87">
-        <v>519.9860456829683</v>
+        <v>4841676.70772377</v>
       </c>
       <c r="K87">
-        <v>1856.673374955371</v>
+        <v>3986569.234155326</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>56.55817440207005</v>
+        <v>1116411.446274015</v>
       </c>
       <c r="G88">
-        <v>232.0894936862946</v>
+        <v>4841553.805771967</v>
       </c>
       <c r="H88">
-        <v>2567.730056833706</v>
+        <v>3986187.769966636</v>
       </c>
       <c r="I88">
-        <v>-12.90735860166668</v>
+        <v>1116341.686126623</v>
       </c>
       <c r="J88">
-        <v>462.8988427140926</v>
+        <v>4841628.056032197</v>
       </c>
       <c r="K88">
-        <v>1704.48772148001</v>
+        <v>3986388.273405058</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>55.50164875960665</v>
+        <v>1116410.544890439</v>
       </c>
       <c r="G89">
-        <v>243.7264953675886</v>
+        <v>4841570.318590869</v>
       </c>
       <c r="H89">
-        <v>2583.672841590198</v>
+        <v>3986199.06624441</v>
       </c>
       <c r="I89">
-        <v>32.61889451212634</v>
+        <v>1116407.774806326</v>
       </c>
       <c r="J89">
-        <v>405.8116397452171</v>
+        <v>4841579.404340623</v>
       </c>
       <c r="K89">
-        <v>1539.562268220243</v>
+        <v>3986192.164027608</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>54.50217831773245</v>
+        <v>1116409.692183979</v>
       </c>
       <c r="G90">
-        <v>255.3634970488826</v>
+        <v>4841586.83140977</v>
       </c>
       <c r="H90">
-        <v>2599.037033228479</v>
+        <v>3986209.952559391</v>
       </c>
       <c r="I90">
-        <v>79.26618972546157</v>
+        <v>1116475.490858967</v>
       </c>
       <c r="J90">
-        <v>348.7244367763413</v>
+        <v>4841530.752649049</v>
       </c>
       <c r="K90">
-        <v>1361.897015176068</v>
+        <v>3985980.906022972</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>53.55480802483809</v>
+        <v>1116408.883927191</v>
       </c>
       <c r="G91">
-        <v>267.0004987301766</v>
+        <v>4841603.34422867</v>
       </c>
       <c r="H91">
-        <v>2613.863161564573</v>
+        <v>3986220.457629023</v>
       </c>
       <c r="I91">
-        <v>127.0621316687009</v>
+        <v>1116544.874357107</v>
       </c>
       <c r="J91">
-        <v>291.6372338074659</v>
+        <v>4841482.100957477</v>
       </c>
       <c r="K91">
-        <v>1171.491962347487</v>
+        <v>3985754.499391153</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>52.65516487524768</v>
+        <v>1116408.11638921</v>
       </c>
       <c r="G92">
-        <v>278.6375004114707</v>
+        <v>4841619.857047571</v>
       </c>
       <c r="H92">
-        <v>2628.187641526092</v>
+        <v>3986230.607255145</v>
       </c>
       <c r="I92">
-        <v>176.0350047108317</v>
+        <v>1116615.966360056</v>
       </c>
       <c r="J92">
-        <v>234.5500308385901</v>
+        <v>4841433.449265902</v>
       </c>
       <c r="K92">
-        <v>968.3471097344977</v>
+        <v>3985512.94413215</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>51.7993728852217</v>
+        <v>1116407.386263207</v>
       </c>
       <c r="G93">
-        <v>290.2745020927646</v>
+        <v>4841636.369866472</v>
       </c>
       <c r="H93">
-        <v>2642.043311998149</v>
+        <v>3986240.424705784</v>
       </c>
       <c r="I93">
-        <v>226.2137896974084</v>
+        <v>1116688.808938175</v>
       </c>
       <c r="J93">
-        <v>177.4628278697143</v>
+        <v>4841384.797574328</v>
       </c>
       <c r="K93">
-        <v>752.4624573371021</v>
+        <v>3985256.240245963</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>50.98398276757356</v>
+        <v>1116406.690606395</v>
       </c>
       <c r="G94">
-        <v>301.9115037740587</v>
+        <v>4841652.882685372</v>
       </c>
       <c r="H94">
-        <v>2655.45988925558</v>
+        <v>3986249.93103644</v>
       </c>
       <c r="I94">
-        <v>277.628181100643</v>
+        <v>1116763.445197766</v>
       </c>
       <c r="J94">
-        <v>120.3756249008388</v>
+        <v>4841336.145882755</v>
       </c>
       <c r="K94">
-        <v>523.8380051552998</v>
+        <v>3984984.387732592</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>50.20591339416934</v>
+        <v>1116406.026790085</v>
       </c>
       <c r="G95">
-        <v>313.5485054553527</v>
+        <v>4841669.395504273</v>
       </c>
       <c r="H95">
-        <v>2668.464350730421</v>
+        <v>3986259.145362003</v>
       </c>
       <c r="I95">
-        <v>330.3086045918106</v>
+        <v>1116839.919306585</v>
       </c>
       <c r="J95">
-        <v>63.28842193196306</v>
+        <v>4841287.494191182</v>
       </c>
       <c r="K95">
-        <v>282.4737531890898</v>
+        <v>3984697.386592037</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>49.46240278082721</v>
+        <v>1116405.392457866</v>
       </c>
       <c r="G96">
-        <v>325.1855071366468</v>
+        <v>4841685.908323174</v>
       </c>
       <c r="H96">
-        <v>2681.081261576504</v>
+        <v>3986268.085088139</v>
       </c>
       <c r="I96">
-        <v>384.2862350463468</v>
+        <v>1116918.27651998</v>
       </c>
       <c r="J96">
-        <v>6.201218963087296</v>
+        <v>4841238.842499607</v>
       </c>
       <c r="K96">
-        <v>28.36970143847296</v>
+        <v>3984395.236824298</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>48.7509668169708</v>
+        <v>1116404.785490399</v>
       </c>
       <c r="G97">
-        <v>336.8225088179408</v>
+        <v>4841702.421142074</v>
       </c>
       <c r="H97">
-        <v>2693.3330539674</v>
+        <v>3986276.76610919</v>
       </c>
       <c r="I97">
-        <v>439.5930149923161</v>
+        <v>1116998.563207666</v>
       </c>
       <c r="J97">
-        <v>-50.8859840057882</v>
+        <v>4841190.190808034</v>
       </c>
       <c r="K97">
-        <v>-238.4741500965502</v>
+        <v>3984077.938429376</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>48.06936433452094</v>
+        <v>1116404.203975613</v>
       </c>
       <c r="G98">
-        <v>348.4595104992347</v>
+        <v>4841718.933960975</v>
       </c>
       <c r="H98">
-        <v>2705.240267106858</v>
+        <v>3986285.202978231</v>
       </c>
       <c r="I98">
-        <v>496.2616735131506</v>
+        <v>1117080.826881174</v>
       </c>
       <c r="J98">
-        <v>-107.973186974664</v>
+        <v>4841141.53911646</v>
       </c>
       <c r="K98">
-        <v>-518.0578014159811</v>
+        <v>3983745.491407269</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>47.41556739676528</v>
+        <v>1116403.646183357</v>
       </c>
       <c r="G99">
-        <v>360.0965121805288</v>
+        <v>4841735.446779875</v>
       </c>
       <c r="H99">
-        <v>2716.821754402366</v>
+        <v>3986293.409053865</v>
       </c>
       <c r="I99">
-        <v>554.3257456158511</v>
+        <v>1117165.116221962</v>
       </c>
       <c r="J99">
-        <v>-165.0603899435397</v>
+        <v>4841092.887424886</v>
       </c>
       <c r="K99">
-        <v>-810.3812525198197</v>
+        <v>3983397.895757978</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>46.7877359098937</v>
+        <v>1116403.11054374</v>
       </c>
       <c r="G100">
-        <v>371.7335138618228</v>
+        <v>4841751.959598777</v>
       </c>
       <c r="H100">
-        <v>2728.094863049585</v>
+        <v>3986301.396627467</v>
       </c>
       <c r="I100">
-        <v>613.8195920761137</v>
+        <v>1117251.481110221</v>
       </c>
       <c r="J100">
-        <v>-222.1475929124155</v>
+        <v>4841044.235733313</v>
       </c>
       <c r="K100">
-        <v>-1115.444503408065</v>
+        <v>3983035.151481504</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>46.18419583324273</v>
+        <v>1116402.59562854</v>
       </c>
       <c r="G101">
-        <v>383.3705155431168</v>
+        <v>4841768.472417678</v>
       </c>
       <c r="H101">
-        <v>2739.075590322391</v>
+        <v>3986309.177033922</v>
       </c>
       <c r="I101">
-        <v>674.7784197721248</v>
+        <v>1117339.9726544</v>
       </c>
       <c r="J101">
-        <v>-279.2347958812907</v>
+        <v>4840995.584041739</v>
       </c>
       <c r="K101">
-        <v>-1433.247554080715</v>
+        <v>3982657.258577845</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>45.60342040065645</v>
+        <v>1116402.100135185</v>
       </c>
       <c r="G102">
-        <v>395.0075172244109</v>
+        <v>4841784.985236578</v>
       </c>
       <c r="H102">
-        <v>2749.77872010288</v>
+        <v>3986316.760748367</v>
       </c>
       <c r="I102">
-        <v>737.2383025190578</v>
+        <v>1117430.643221444</v>
       </c>
       <c r="J102">
-        <v>-336.3219988501665</v>
+        <v>4840946.932350166</v>
       </c>
       <c r="K102">
-        <v>-1763.790404537774</v>
+        <v>3982264.217047003</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>45.04401387333971</v>
+        <v>1116401.622872887</v>
       </c>
       <c r="G103">
-        <v>406.6445189057049</v>
+        <v>4841801.498055479</v>
       </c>
       <c r="H103">
-        <v>2760.217942575529</v>
+        <v>3986324.157470998</v>
       </c>
       <c r="I103">
-        <v>801.236202416595</v>
+        <v>1117523.546467785</v>
       </c>
       <c r="J103">
-        <v>-393.4092018190423</v>
+        <v>4840898.280658592</v>
       </c>
       <c r="K103">
-        <v>-2107.07305477924</v>
+        <v>3981856.026888976</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>44.50469743060646</v>
+        <v>1116401.162750611</v>
       </c>
       <c r="G104">
-        <v>418.2815205869989</v>
+        <v>4841818.010874379</v>
       </c>
       <c r="H104">
-        <v>2770.405959516945</v>
+        <v>3986331.376201671</v>
       </c>
       <c r="I104">
-        <v>866.8099917221207</v>
+        <v>1117618.737371098</v>
       </c>
       <c r="J104">
-        <v>-450.496404787918</v>
+        <v>4840849.628967018</v>
       </c>
       <c r="K104">
-        <v>-2463.095504805114</v>
+        <v>3981432.688103766</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>43.98429687387955</v>
+        <v>1116400.718766578</v>
       </c>
       <c r="G105">
-        <v>429.918522268293</v>
+        <v>4841834.523693279</v>
       </c>
       <c r="H105">
-        <v>2780.35457721257</v>
+        <v>3986338.425305744</v>
       </c>
       <c r="I105">
-        <v>933.9984752625159</v>
+        <v>1117716.272262831</v>
       </c>
       <c r="J105">
-        <v>-507.5836077567938</v>
+        <v>4840800.977275444</v>
       </c>
       <c r="K105">
-        <v>-2831.857754615393</v>
+        <v>3980994.200691372</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>43.4817318748694</v>
+        <v>1116400.2899991</v>
       </c>
       <c r="G106">
-        <v>441.5555239495869</v>
+        <v>4841851.036512181</v>
       </c>
       <c r="H106">
-        <v>2790.07478870517</v>
+        <v>3986345.312572349</v>
       </c>
       <c r="I106">
-        <v>1002.84141339782</v>
+        <v>1117816.208861543</v>
       </c>
       <c r="J106">
-        <v>-564.670810725669</v>
+        <v>4840752.325583871</v>
       </c>
       <c r="K106">
-        <v>-3213.359804210078</v>
+        <v>3980540.564651794</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>42.99600654389845</v>
+        <v>1116399.875598523</v>
       </c>
       <c r="G107">
-        <v>453.1925256308809</v>
+        <v>4841867.549331082</v>
       </c>
       <c r="H107">
-        <v>2799.576846812013</v>
+        <v>3986352.045266131</v>
       </c>
       <c r="I107">
-        <v>1073.379545550366</v>
+        <v>1117918.606307058</v>
       </c>
       <c r="J107">
-        <v>-621.7580136945447</v>
+        <v>4840703.673892297</v>
       </c>
       <c r="K107">
-        <v>-3607.601653589173</v>
+        <v>3980071.779985032</v>
       </c>
     </row>
   </sheetData>
